--- a/策划案&需求/2.1.xlsx
+++ b/策划案&需求/2.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\food\TheMirrorSeries_Plan\策划案&amp;需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,12 +28,12 @@
     <definedName name="AllConditions">[1]枚举类别!$B$23:$B$29</definedName>
     <definedName name="AllTriggers">[1]枚举类别!$B$3:$B$19</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="322">
   <si>
     <t>项目组别</t>
   </si>
@@ -735,10 +735,6 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1908,6 +1904,62 @@
       </rPr>
       <t>=0时，光线消失；</t>
     </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4、技能范围  </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、持续时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP变化</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MP变化</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、技能冷却时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、技能对象</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、技能延迟(延迟X秒以后释放)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能基本参数：</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3057,6 +3109,66 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3066,89 +3178,35 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3156,10 +3214,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3172,18 +3236,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5474,262 +5526,262 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97" t="s">
+      <c r="B4" s="124"/>
+      <c r="C4" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98" t="s">
+      <c r="B8" s="124"/>
+      <c r="C8" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="98" t="s">
+      <c r="B9" s="112"/>
+      <c r="C9" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A11" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
+      <c r="A11" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="116"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="101" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
+      <c r="A12" s="117" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
-        <v>276</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
+      <c r="A13" s="122" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="103"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="121"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="109"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="109"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="108"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="108"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
@@ -5780,105 +5832,138 @@
       <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="111"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="110"/>
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="116" t="s">
+      <c r="B25" s="105"/>
+      <c r="C25" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="115" t="s">
+      <c r="D25" s="97"/>
+      <c r="E25" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="118" t="s">
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="116" t="s">
+      <c r="B26" s="95"/>
+      <c r="C26" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="121"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="122" t="s">
+      <c r="D26" s="97"/>
+      <c r="E26" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="98"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="101"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="119" t="s">
+      <c r="A27" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="B27" s="120"/>
-      <c r="C27" s="116" t="s">
+      <c r="D27" s="97"/>
+      <c r="E27" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="98"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="99" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="117"/>
-      <c r="E27" s="116" t="s">
-        <v>279</v>
-      </c>
-      <c r="F27" s="121"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="122" t="s">
-        <v>272</v>
-      </c>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="119"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:G28"/>
@@ -5891,39 +5976,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5932,10 +5984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V287"/>
+  <dimension ref="A1:V295"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:T1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A265" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5961,27 +6013,27 @@
   <sheetData>
     <row r="1" spans="1:20" ht="29.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
     </row>
     <row r="3" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
@@ -6116,7 +6168,7 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -6196,11 +6248,11 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B13" s="17"/>
       <c r="C13" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -6305,7 +6357,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="D22" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.15">
@@ -6315,7 +6367,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="D25" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="46"/>
     </row>
@@ -6379,7 +6431,7 @@
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E41" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.15">
@@ -6389,7 +6441,7 @@
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E44" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.15">
@@ -6408,7 +6460,7 @@
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -6508,7 +6560,7 @@
     <row r="82" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D82" s="23"/>
       <c r="E82" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I82" s="46"/>
     </row>
@@ -6628,7 +6680,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="M98" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.15">
@@ -6759,7 +6811,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E146" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -6778,7 +6830,7 @@
     </row>
     <row r="151" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E151" s="66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
@@ -6786,29 +6838,29 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E153" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E155" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="46"/>
       <c r="E156" s="89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A157" s="46"/>
       <c r="E157" s="66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E158" s="66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
@@ -6871,85 +6923,85 @@
     </row>
     <row r="183" spans="5:11" s="66" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E183" s="66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="184" spans="5:11" s="66" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E184" s="66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="185" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E185" s="66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" spans="5:11" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E186" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="187" spans="5:11" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E187" s="66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="188" spans="5:11" ht="19.5" x14ac:dyDescent="0.15">
       <c r="E188" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="189" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E189" s="66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="190" spans="5:11" x14ac:dyDescent="0.15">
       <c r="E190" s="66"/>
     </row>
     <row r="197" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="J197" s="128" t="s">
+      <c r="J197" s="126" t="s">
+        <v>279</v>
+      </c>
+      <c r="K197" s="126"/>
+      <c r="L197" s="93" t="s">
         <v>280</v>
       </c>
-      <c r="K197" s="128"/>
-      <c r="L197" s="93" t="s">
-        <v>281</v>
-      </c>
       <c r="M197" s="93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J198" s="125" t="s">
+      <c r="J198" s="127" t="s">
+        <v>307</v>
+      </c>
+      <c r="K198" s="127"/>
+      <c r="L198" s="91" t="s">
         <v>308</v>
-      </c>
-      <c r="K198" s="125"/>
-      <c r="L198" s="91" t="s">
-        <v>309</v>
       </c>
       <c r="M198" s="90">
         <v>10</v>
       </c>
     </row>
     <row r="199" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J199" s="125" t="s">
-        <v>294</v>
-      </c>
-      <c r="K199" s="125"/>
+      <c r="J199" s="127" t="s">
+        <v>293</v>
+      </c>
+      <c r="K199" s="127"/>
       <c r="L199" s="91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M199" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="J200" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="K200" s="125"/>
+      <c r="J200" s="127" t="s">
+        <v>294</v>
+      </c>
+      <c r="K200" s="127"/>
       <c r="L200" s="91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M200" s="90">
         <v>7</v>
@@ -6960,12 +7012,12 @@
       <c r="F201" s="91"/>
       <c r="G201" s="91"/>
       <c r="H201" s="91"/>
-      <c r="J201" s="125" t="s">
-        <v>283</v>
-      </c>
-      <c r="K201" s="125"/>
+      <c r="J201" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="K201" s="127"/>
       <c r="L201" s="91" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M201" s="90">
         <v>20</v>
@@ -6976,15 +7028,15 @@
       <c r="F202" s="91"/>
       <c r="G202" s="91"/>
       <c r="H202" s="91"/>
-      <c r="J202" s="125" t="s">
-        <v>284</v>
-      </c>
-      <c r="K202" s="125"/>
+      <c r="J202" s="127" t="s">
+        <v>283</v>
+      </c>
+      <c r="K202" s="127"/>
       <c r="L202" s="91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M202" s="91" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="203" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
@@ -6992,12 +7044,12 @@
       <c r="F203" s="91"/>
       <c r="G203" s="91"/>
       <c r="H203" s="91"/>
-      <c r="J203" s="125" t="s">
-        <v>286</v>
-      </c>
-      <c r="K203" s="125"/>
+      <c r="J203" s="127" t="s">
+        <v>285</v>
+      </c>
+      <c r="K203" s="127"/>
       <c r="L203" s="91" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M203" s="90">
         <v>100</v>
@@ -7008,12 +7060,12 @@
       <c r="F204" s="91"/>
       <c r="G204" s="91"/>
       <c r="H204" s="91"/>
-      <c r="J204" s="125" t="s">
-        <v>287</v>
-      </c>
-      <c r="K204" s="125"/>
+      <c r="J204" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="K204" s="127"/>
       <c r="L204" s="91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M204" s="90">
         <v>100</v>
@@ -7024,15 +7076,15 @@
       <c r="F205" s="91"/>
       <c r="G205" s="91"/>
       <c r="H205" s="91"/>
-      <c r="J205" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="K205" s="125"/>
+      <c r="J205" s="127" t="s">
+        <v>287</v>
+      </c>
+      <c r="K205" s="127"/>
       <c r="L205" s="91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M205" s="91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="206" spans="5:13" ht="19.5" x14ac:dyDescent="0.15">
@@ -7040,15 +7092,15 @@
       <c r="F206" s="91"/>
       <c r="G206" s="91"/>
       <c r="H206" s="91"/>
-      <c r="J206" s="126" t="s">
-        <v>292</v>
-      </c>
-      <c r="K206" s="126"/>
+      <c r="J206" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="K206" s="128"/>
       <c r="L206" s="92" t="s">
+        <v>298</v>
+      </c>
+      <c r="M206" s="92" t="s">
         <v>299</v>
-      </c>
-      <c r="M206" s="92" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="207" spans="5:13" x14ac:dyDescent="0.15">
@@ -7163,14 +7215,14 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E235" s="46"/>
       <c r="F235" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="H235" s="50" t="s">
         <v>255</v>
-      </c>
-      <c r="H235" s="50" t="s">
-        <v>256</v>
       </c>
       <c r="I235" s="50"/>
       <c r="K235" s="46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.15">
@@ -7198,12 +7250,12 @@
     </row>
     <row r="242" spans="5:8" x14ac:dyDescent="0.15">
       <c r="E242" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="5:8" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E244" s="66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="5:8" x14ac:dyDescent="0.15">
@@ -7221,7 +7273,7 @@
     </row>
     <row r="254" spans="5:8" x14ac:dyDescent="0.15">
       <c r="H254" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="259" spans="8:8" x14ac:dyDescent="0.15">
@@ -7257,91 +7309,129 @@
       <c r="R273" s="27"/>
     </row>
     <row r="275" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="D275" s="23"/>
       <c r="E275" s="46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="278" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="279" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C279" s="9"/>
-      <c r="D279" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E279" s="9"/>
-      <c r="F279" s="9"/>
-      <c r="G279" s="9"/>
-      <c r="H279" s="9"/>
-      <c r="I279" s="9"/>
-      <c r="J279" s="9"/>
-      <c r="K279" s="9"/>
-      <c r="L279" s="9"/>
-      <c r="M279" s="9"/>
-      <c r="N279" s="9"/>
-      <c r="O279" s="9"/>
-      <c r="P279" s="9"/>
-      <c r="Q279" s="9"/>
-      <c r="R279" s="9"/>
-      <c r="S279" s="29"/>
-    </row>
-    <row r="281" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C281" s="24">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="276" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E276" s="46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="277" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E277" s="46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="278" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E278" s="46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="279" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E279" s="46" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="280" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E280" s="46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="281" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E281" s="46" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="282" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E282" s="46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="283" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="D283" s="23"/>
+      <c r="E283" s="46"/>
+    </row>
+    <row r="286" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="287" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B287" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C287" s="9"/>
+      <c r="D287" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
+      <c r="I287" s="9"/>
+      <c r="J287" s="9"/>
+      <c r="K287" s="9"/>
+      <c r="L287" s="9"/>
+      <c r="M287" s="9"/>
+      <c r="N287" s="9"/>
+      <c r="O287" s="9"/>
+      <c r="P287" s="9"/>
+      <c r="Q287" s="9"/>
+      <c r="R287" s="9"/>
+      <c r="S287" s="29"/>
+    </row>
+    <row r="289" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C289" s="24">
         <v>4</v>
       </c>
-      <c r="D281" s="25"/>
-      <c r="E281" s="26" t="s">
+      <c r="D289" s="25"/>
+      <c r="E289" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F281" s="25"/>
-      <c r="G281" s="27"/>
-      <c r="H281" s="27"/>
-      <c r="I281" s="27"/>
-      <c r="J281" s="27"/>
-      <c r="K281" s="27"/>
-      <c r="L281" s="27"/>
-      <c r="M281" s="27"/>
-      <c r="N281" s="27"/>
-      <c r="O281" s="27"/>
-      <c r="P281" s="27"/>
-      <c r="Q281" s="27"/>
-      <c r="R281" s="27"/>
-    </row>
-    <row r="283" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="E283" s="46" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="285" spans="2:19" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="E285" s="46" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="286" spans="2:19" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="E286" s="46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="287" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="E287" s="46" t="s">
-        <v>245</v>
+      <c r="F289" s="25"/>
+      <c r="G289" s="27"/>
+      <c r="H289" s="27"/>
+      <c r="I289" s="27"/>
+      <c r="J289" s="27"/>
+      <c r="K289" s="27"/>
+      <c r="L289" s="27"/>
+      <c r="M289" s="27"/>
+      <c r="N289" s="27"/>
+      <c r="O289" s="27"/>
+      <c r="P289" s="27"/>
+      <c r="Q289" s="27"/>
+      <c r="R289" s="27"/>
+    </row>
+    <row r="291" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E291" s="46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="293" spans="3:18" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="E293" s="46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="294" spans="3:18" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="E294" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="295" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="E295" s="46" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="J202:K202"/>
-    <mergeCell ref="J203:K203"/>
     <mergeCell ref="J204:K204"/>
     <mergeCell ref="J205:K205"/>
     <mergeCell ref="J206:K206"/>
     <mergeCell ref="J198:K198"/>
     <mergeCell ref="J200:K200"/>
     <mergeCell ref="J199:K199"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="J202:K202"/>
+    <mergeCell ref="J203:K203"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7451,10 +7541,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="132"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="39" t="s">
         <v>19</v>
       </c>
@@ -7467,58 +7557,58 @@
       <c r="G2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="130"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="134"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="136"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="130"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="130"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="132"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="130"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -7726,7 +7816,7 @@
         <v>145</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L14" s="38">
         <v>2</v>
@@ -7754,7 +7844,7 @@
         <v>111</v>
       </c>
       <c r="J15" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K15" s="74"/>
       <c r="L15" s="74">
@@ -7835,7 +7925,7 @@
         <v>107</v>
       </c>
       <c r="J18" s="72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K18" s="74"/>
       <c r="L18" s="74">
@@ -7956,19 +8046,19 @@
         <v>123</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>103</v>
       </c>
       <c r="F23" s="85"/>
       <c r="G23" s="84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H23" s="85"/>
       <c r="I23" s="84"/>
       <c r="J23" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K23" s="85"/>
       <c r="L23" s="86"/>
@@ -8023,16 +8113,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8063,10 +8153,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="132"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="59" t="s">
         <v>19</v>
       </c>
@@ -8079,54 +8169,54 @@
       <c r="G2" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="134"/>
+      <c r="I2" s="130"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="130"/>
+      <c r="C3" s="134"/>
       <c r="D3" s="40"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="136"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="130"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="132"/>
     </row>
     <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="40"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="136"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="132"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="129"/>
-      <c r="C6" s="130"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="136"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
@@ -8223,7 +8313,7 @@
         <v>161</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L10" s="38">
         <v>1.5</v>
@@ -8240,7 +8330,7 @@
         <v>171</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="57" t="s">
@@ -8288,13 +8378,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="E13" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="57" t="s">
@@ -8302,10 +8392,10 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" s="57" t="s">
         <v>187</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>188</v>
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38">
@@ -8335,7 +8425,7 @@
         <v>168</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L14" s="38">
         <v>4</v>
@@ -8428,10 +8518,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="132"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="59" t="s">
         <v>19</v>
       </c>
@@ -8449,10 +8539,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B3" s="129" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="130"/>
+      <c r="B3" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="134"/>
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
@@ -8460,8 +8550,8 @@
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
@@ -8469,8 +8559,8 @@
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
@@ -8478,8 +8568,8 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B6" s="129"/>
-      <c r="C6" s="130"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
@@ -8553,7 +8643,7 @@
         <v>37</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.15">
@@ -8562,21 +8652,21 @@
         <v>1</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J10" s="47"/>
       <c r="K10" s="47"/>
@@ -8587,21 +8677,21 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -8612,21 +8702,21 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -8637,18 +8727,18 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>207</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>208</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
@@ -8659,19 +8749,19 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" s="47"/>
       <c r="F14" s="38"/>
       <c r="G14" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="57" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
@@ -8682,23 +8772,23 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -8709,24 +8799,24 @@
         <v>7</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16" s="75"/>
       <c r="G16" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H16" s="75"/>
       <c r="I16" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K16" s="75"/>
       <c r="L16" s="75"/>
@@ -8736,22 +8826,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17" s="74"/>
       <c r="G17" s="73"/>
       <c r="H17" s="74"/>
       <c r="I17" s="72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J17" s="72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K17" s="74"/>
       <c r="L17" s="74"/>
@@ -8761,24 +8851,24 @@
         <v>9</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18" s="75"/>
       <c r="G18" s="77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H18" s="75"/>
       <c r="I18" s="76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K18" s="75"/>
       <c r="L18" s="75"/>
@@ -8788,22 +8878,22 @@
         <v>10</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D19" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="74"/>
       <c r="G19" s="72"/>
       <c r="H19" s="74"/>
       <c r="I19" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J19" s="72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K19" s="74"/>
       <c r="L19" s="74"/>
@@ -8813,24 +8903,24 @@
         <v>11</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F20" s="75"/>
       <c r="G20" s="77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H20" s="75"/>
       <c r="I20" s="76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J20" s="76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K20" s="75"/>
       <c r="L20" s="75"/>
@@ -8840,21 +8930,21 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
@@ -8865,24 +8955,24 @@
         <v>13</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F22" s="75"/>
       <c r="G22" s="77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H22" s="75"/>
       <c r="I22" s="76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K22" s="75"/>
       <c r="L22" s="75"/>
@@ -8892,21 +8982,21 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
